--- a/res/Economics 2.xlsx
+++ b/res/Economics 2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TrainTycoon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF46D35-5BA2-4C4D-B49D-445658DFCA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AD429A-613A-44E6-87C2-25B87CBD0EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B37A1D14-8B29-4614-B0AE-9C205C4A70F1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{B37A1D14-8B29-4614-B0AE-9C205C4A70F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Supply Equation</t>
   </si>
@@ -110,18 +112,71 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>val</t>
+    <t>Available</t>
   </si>
   <si>
-    <t>price = m * (quantity - supply) + c</t>
+    <t>price = m * quantity + c</t>
+  </si>
+  <si>
+    <t>Supply c0</t>
+  </si>
+  <si>
+    <t>c_s = c0 - S</t>
+  </si>
+  <si>
+    <t>c_d = D - A</t>
+  </si>
+  <si>
+    <t>m_supply</t>
+  </si>
+  <si>
+    <t>m_demand</t>
+  </si>
+  <si>
+    <t>c_supply</t>
+  </si>
+  <si>
+    <t>c_demand</t>
+  </si>
+  <si>
+    <t>supply_c0</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_d = D </t>
+  </si>
+  <si>
+    <t>c_s = c0 - S - A</t>
+  </si>
+  <si>
+    <t>supply_m</t>
+  </si>
+  <si>
+    <t>demand_m</t>
+  </si>
+  <si>
+    <t>demand_c0</t>
+  </si>
+  <si>
+    <t>c_d = (D + c0) / A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,8 +204,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,7 +279,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,164 +302,167 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$59</c:f>
+              <c:f>Sheet1!$A$13:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
@@ -411,165 +470,168 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$59</c:f>
+              <c:f>Sheet1!$B$13:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="46">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="49">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="50">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="51">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="52">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,7 +648,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>Sheet1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -609,164 +671,167 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$59</c:f>
+              <c:f>Sheet1!$A$13:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,165 +839,168 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$59</c:f>
+              <c:f>Sheet1!$C$13:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1207,1192 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$9:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF7-4DE3-8384-12D8805444D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$9:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACF7-4DE3-8384-12D8805444D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$9:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.954545454545455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.884615384615385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.794117647058824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.763157894736842</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.738095238095237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.717391304347826</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.708333333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.685185185185185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.678571428571429</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.672413793103448</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.661290322580646</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.65625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.651515151515152</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.642857142857142</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.635135135135135</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.631578947368421</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.628205128205128</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.621951219512194</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.616279069767442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ACF7-4DE3-8384-12D8805444D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457357432"/>
+        <c:axId val="457353824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457357432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457353824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457353824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457357432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1695,20 +2948,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504332</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18622</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551022</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>535536</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52125</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582226</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1716,6 +3485,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4AC517-12BA-450A-B69F-01924640AFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140493</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5892C9-98F8-4026-802D-2A88D5D6CD9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B69073C-ECCD-4370-9BCE-63262F3B4DBF}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2046,1032 +3856,3376 @@
     <col min="9" max="9" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <f>B4-B1</f>
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>B2-B3</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>(C8-C7)/(B7-B8)</f>
+        <v>45.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>B7*B9+C7</f>
+        <v>48.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <f>(-(I7+I9-50)*B8-I8*B7)/(B8-B7)</f>
+        <v>23.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>$B$7*A13+$C$7</f>
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <f>$B$8*A13+$C$8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B24" si="0">$B$7*A14+$C$7</f>
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C65" si="1">$B$8*A14+$C$8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B65" si="2">$B$7*A25+$C$7</f>
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>-6</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>-6</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <f>J29*$I$34</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>K29*$J$35</f>
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <f>L29*$K$36</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <f>J30*$I$34</f>
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <f>K30*$J$35</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>L30*$K$36</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <f>K29*-$I$35</f>
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <f>L29*-$J$36</f>
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <f>I29*-$K$33</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f>K30*-$I$36</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>L30*-$J$36</f>
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <f>I30*-$K$33</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" ref="I48:K49" si="3">(I43+$D$8-I39-$D$7)/($B$7-$B$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" ref="I52:K53" si="4">$B$7*I48+$D$7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>44</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>48</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>51</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>52</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53A3BE3-BDF9-4119-84E8-881BDC44522D}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B9">
+        <f>$B$3</f>
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <f>$B$4</f>
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="D9">
+        <f>$B$5-$B$1</f>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f>$B$2-A9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>($C9*D9-$B9*E9)/($C9-$B9)</f>
+        <v>12.5</v>
+      </c>
+      <c r="G9">
+        <f>$B$5-$B$1-$A9</f>
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <f>$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>($C9*G9-$B9*H9)/($C9-$B9)</f>
+        <v>12.5</v>
+      </c>
+      <c r="J9">
+        <f>$B$5-$B$1</f>
+        <v>25</v>
+      </c>
+      <c r="K9" t="e">
+        <f>($B$2+$B$6)/$A9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f>($C9*J9-$B9*K9)/($C9-$B9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B10">
+        <f t="shared" ref="B10:B52" si="0">$B$3</f>
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C52" si="1">$B$4</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D52" si="2">$B$5-$B$1</f>
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E52" si="3">$B$2-A10</f>
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F52" si="4">($C10*D10-$B10*E10)/($C10-$B10)</f>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G52" si="5">$B$5-$B$1-$A10</f>
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H52" si="6">$B$2</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f>(C3+D3-C2+D2)/(B2-B3)</f>
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <f>(C3-C2-B2*D2+B3*D3)/(B2-B3)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <f>B2*B4+C2-D2</f>
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <f>B2*(C4+D2)+C2</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f>$B$2*(A8+$D$2)+$C$2</f>
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <f>$B$3*(A8+$D$3)+$C$3</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="I10">
+        <f t="shared" ref="I10:I52" si="7">($C10*G10-$B10*H10)/($C10-$B10)</f>
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J52" si="8">$B$5-$B$1</f>
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K52" si="9">($B$2+$B$6)/$A10</f>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L52" si="10">($C10*J10-$B10*K10)/($C10-$B10)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>2</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B59" si="0">$B$2*(A9+$D$2)+$C$2</f>
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C31" si="1">$B$3*(A9+$D$3)+$C$3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>4</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>11.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>10.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>10.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="10"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="10"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>13.214285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>1.25</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>13.125</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>13.055555555555555</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>12.954545454545455</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>12.916666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>-13</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L22" t="s">
-        <v>17</v>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>12.884615384615385</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>5.5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>12.857142857142858</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I24">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>12.833333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>0.625</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>12.8125</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>12.794117647058824</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>-6</v>
+        <f t="shared" si="9"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>12.777777777777779</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>-19</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>12.763157894736842</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>-6</v>
+        <f t="shared" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>12.75</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>-6</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>12.738095238095237</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>12.727272727272727</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C49" si="2">$B$3*(A32+$D$3)+$C$3</f>
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>-23</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="10"/>
+        <v>12.717391304347826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>-24</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I33">
-        <f>J23*$I$28</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.5</v>
       </c>
       <c r="J33">
-        <f>K23*$J$29</f>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K33">
-        <f>L23*$K$30</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>12.708333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I34">
-        <f>J24*$I$28</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J34">
-        <f>K24*$J$29</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K34">
-        <f>L24*$K$30</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="10"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>-26</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="10"/>
+        <v>12.692307692307692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>-27</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="10"/>
+        <v>12.685185185185185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>-28</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I37">
-        <f>K23*-$I$29</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>-1.5</v>
       </c>
       <c r="J37">
-        <f>L23*-$J$30</f>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K37">
-        <f>I23*-$K$27</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="10"/>
+        <v>12.678571428571429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>-29</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I38">
-        <f>K24*-$I$30</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2</v>
       </c>
       <c r="J38">
-        <f>L24*-$J$30</f>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K38">
-        <f>I24*-$K$27</f>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>12.672413793103448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>-31</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="9"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>12.661290322580646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>-32</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>-3.5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="9"/>
+        <v>0.3125</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>12.65625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>-33</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I42">
-        <f>(I37+$D$3-I33-$D$2)/($B$2-$B$3)</f>
-        <v>-5</v>
+        <f t="shared" si="7"/>
+        <v>-4</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:K43" si="3">(J37+$D$3-J33-$D$2)/($B$2-$B$3)</f>
-        <v>-2</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="10"/>
+        <v>12.651515151515152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>-34</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>-4.5</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I43">
-        <f>(I38+$D$3-I34-$D$2)/($B$2-$B$3)</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>-4.5</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
-        <v>-5</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
-        <v>-5.8999999999999986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="10"/>
+        <v>12.647058823529411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="10"/>
+        <v>12.642857142857142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>-36</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>-5.5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>-5.5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="9"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="10"/>
+        <v>12.638888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>-37</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I46">
-        <f>$B$2*I42+$D$2</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>-6</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:K46" si="4">$B$2*J42+$D$2</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="10"/>
+        <v>12.635135135135135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>-38</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>-6.5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I47">
-        <f>$B$2*I43+$D$2</f>
-        <v>-4</v>
+        <f t="shared" si="7"/>
+        <v>-6.5</v>
       </c>
       <c r="J47">
-        <f t="shared" ref="J47:K47" si="5">$B$2*J43+$D$2</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
-        <v>5.8999999999999986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="10"/>
+        <v>12.631578947368421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="9"/>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="10"/>
+        <v>12.628205128205128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>-7.5</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>-7.5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="10"/>
+        <v>12.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C59" si="6">$B$3*(A50+$D$3)+$C$3</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>-41</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="9"/>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="10"/>
+        <v>12.621951219512194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>-42</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>-17</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>-8.5</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="9"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="10"/>
+        <v>12.619047619047619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>-43</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>-18</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>46</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>47</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>48</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>49</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>50</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="6"/>
-        <v>56</v>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="9"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="10"/>
+        <v>12.616279069767442</v>
       </c>
     </row>
   </sheetData>
